--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liatec\Nextcloud\PHD_Progress\22_23_Mini_LEGO_journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696535AE-85F5-481D-86AE-505C6F449A0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0B33EE-715E-4FAF-9441-2A337329FE7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37770" windowHeight="10740" activeTab="2" xr2:uid="{52829A70-4FEE-40E4-AD61-8D877EE44FB6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37770" windowHeight="10740" activeTab="5" xr2:uid="{52829A70-4FEE-40E4-AD61-8D877EE44FB6}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Generation" sheetId="3" r:id="rId3"/>
     <sheet name="Import&amp;ExportCost" sheetId="2" r:id="rId4"/>
     <sheet name="GridTariffs" sheetId="5" r:id="rId5"/>
+    <sheet name="Grid" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8884" uniqueCount="8844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8971" uniqueCount="8851">
   <si>
     <t>pENSCost</t>
   </si>
@@ -26561,6 +26562,27 @@
   </si>
   <si>
     <t>Flat fees</t>
+  </si>
+  <si>
+    <t>From bus i</t>
+  </si>
+  <si>
+    <t>To bus j</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>BaseVolt</t>
+  </si>
+  <si>
+    <t>[kV]</t>
+  </si>
+  <si>
+    <t>Power Lines</t>
+  </si>
+  <si>
+    <t>Bus Info</t>
   </si>
 </sst>
 </file>
@@ -26570,7 +26592,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26624,6 +26646,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3366FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -26661,7 +26690,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
@@ -26718,6 +26747,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -27497,7 +27539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADED52-0855-48E8-8D5B-953D363A634A}">
   <dimension ref="A3:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -97950,4 +97992,394 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BE10F4-8AC5-4FBC-901C-9AA0323E0FB5}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8849</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
+        <v>8847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>8844</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>8845</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="20" t="s">
+        <v>8848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liatec\Nextcloud\PHD_Progress\22_23_Mini_LEGO_journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0B33EE-715E-4FAF-9441-2A337329FE7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B086A2-3E07-4533-97E5-8BBBB459002C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37770" windowHeight="10740" activeTab="5" xr2:uid="{52829A70-4FEE-40E4-AD61-8D877EE44FB6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8971" uniqueCount="8851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8972" uniqueCount="8852">
   <si>
     <t>pENSCost</t>
   </si>
@@ -26583,6 +26583,9 @@
   </si>
   <si>
     <t>Bus Info</t>
+  </si>
+  <si>
+    <t>*Due to constraints imposed by the data providers the exact power line data cannot be shared</t>
   </si>
 </sst>
 </file>
@@ -97996,10 +97999,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BE10F4-8AC5-4FBC-901C-9AA0323E0FB5}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -98379,6 +98382,11 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8851</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
